--- a/excel/t_pve_rule_leagueSkillChallenge_Server..xlsx
+++ b/excel/t_pve_rule_leagueSkillChallenge_Server..xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>skill_challenge_type_id</t>
   </si>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>point3</t>
-  </si>
-  <si>
-    <t>award1</t>
-  </si>
-  <si>
-    <t>award2</t>
-  </si>
-  <si>
-    <t>award3</t>
   </si>
   <si>
     <t>int_key</t>
@@ -120,28 +111,10 @@
     <t>3星分数</t>
   </si>
   <si>
-    <t>1星奖励</t>
-  </si>
-  <si>
-    <t>2星奖励</t>
-  </si>
-  <si>
-    <t>3星奖励</t>
-  </si>
-  <si>
     <t>Dribble Skill Challenge (D)</t>
   </si>
   <si>
     <t>Control the player to dribble through the cones on the training ground.\nPlayers with high &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Dribbling&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; and &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Speed &lt;/color&gt;&lt;/i&gt;&lt;/b&gt; attributes can perform better in the challenge.</t>
-  </si>
-  <si>
-    <t>{"itemAwards":[{"itemId":1,"num":40}]}</t>
-  </si>
-  <si>
-    <t>{"itemAwards":[{"itemId":1,"num":80}]}</t>
-  </si>
-  <si>
-    <t>{"itemAwards":[{"itemId":1,"num":120}]}</t>
   </si>
   <si>
     <t>Dribble Skill Challenge (C)</t>
@@ -162,7 +135,7 @@
     <t>Free Kick Skill Challenge (D)</t>
   </si>
   <si>
-    <t>Complete free kicks from different positions on the pitch.\nPlayers with high &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Finishing&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; and &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Free Kick&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; attributes can perform better in challenge.</t>
+    <t>Complete free kick shooting challenges in different positions.\nPlayers with high &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Finishing&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; and &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Free Kick&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; attributes can perform better in challenge.</t>
   </si>
   <si>
     <t>Free Kick Skill Challenge (C)</t>
@@ -189,7 +162,7 @@
     <t>Penalty Save Skill Challenge</t>
   </si>
   <si>
-    <t>Operate the goalkeeper to face the opponent's penalty kick shot, observe and choose a direction to save the ball.\nPlayers with high &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;GK Reflexes&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; attribute and &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Penalty Saver&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; skill are more dominant in penalty save.</t>
+    <t>Facing the opponent's penalty, observe and choose a direction to save.\nPlayers with high &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;GK Reflexes&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; attribute and &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Penalty Saver&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; skill are likely to save penalties.</t>
   </si>
   <si>
     <t>Corner Kick Skill Challenge</t>
@@ -204,14 +177,13 @@
     <t>Long Range Shot Skill Challenge</t>
   </si>
   <si>
-    <t>Finish long shots from different positions on the pitch.\nPlayers with high &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Finishing&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; attribute and &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Long Range Shot &lt;/color&gt;&lt;/i&gt;&lt;/b&gt;skill can raise the threat of long shots.</t>
+    <t>Complete a long range shot to score a goal from the specified area.\nPlayers with high &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Shooting&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; attribute and &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Long Range Shot &lt;/color&gt;&lt;/i&gt;&lt;/b&gt;skill can threat opposition goal better.</t>
   </si>
   <si>
     <t>Slide Tackle Skill Challenge</t>
   </si>
   <si>
-    <t>Steal the opponent's ball with a tackle, pay attention to avoid fouling!\nPlayers with high &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Ball Winning&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; attribute 
-can improve the accuracy of tackles.</t>
+    <t>Steal the opponent's ball with a tackle and avoid fouls!\nPlayers with high &lt;b&gt;&lt;i&gt;&lt;color=#ffa500ff&gt;Interception&lt;/color&gt;&lt;/i&gt;&lt;/b&gt; attribute \ncan improve the accuracy of tackles.</t>
   </si>
   <si>
     <t>Pass Skill Challenge (D)</t>
@@ -252,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -283,29 +255,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,16 +277,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,23 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,16 +321,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,8 +368,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -748,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -760,88 +732,88 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -856,10 +828,10 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -868,26 +840,26 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -908,9 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1303,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="G20">
-      <selection pane="topLeft" activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0" topLeftCell="E1">
+      <selection pane="topLeft" activeCell="O1" sqref="O1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1319,11 +1288,9 @@
     <col min="6" max="8" width="24" customWidth="1"/>
     <col min="9" max="11" width="21.625" customWidth="1"/>
     <col min="12" max="14" width="8.125" customWidth="1"/>
-    <col min="15" max="16" width="40.75" customWidth="1"/>
-    <col min="17" max="17" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5">
+    <row r="1" spans="1:14" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1366,140 +1333,113 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="16.5">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:14" ht="16.5">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>18</v>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="39" customHeight="1">
+    <row r="4" spans="1:14" ht="39" customHeight="1">
       <c r="A4" s="3">
         <v>3011</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4">
         <v>3001</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4">
         <v>12</v>
@@ -1517,34 +1457,25 @@
       <c r="N4" s="3">
         <v>300</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="5" spans="1:17" ht="39" customHeight="1">
+    <row r="5" spans="1:14" ht="39" customHeight="1">
       <c r="A5" s="3">
         <v>3012</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>3001</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4">
         <v>12</v>
@@ -1562,34 +1493,25 @@
       <c r="N5" s="3">
         <v>500</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="6" spans="1:17" ht="39" customHeight="1">
+    <row r="6" spans="1:14" ht="39" customHeight="1">
       <c r="A6" s="3">
         <v>3013</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4">
         <v>3001</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4">
         <v>12</v>
@@ -1607,34 +1529,25 @@
       <c r="N6" s="3">
         <v>700</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="7" spans="1:17" ht="39" customHeight="1">
+    <row r="7" spans="1:14" ht="39" customHeight="1">
       <c r="A7" s="3">
         <v>3014</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>3001</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4">
         <v>12</v>
@@ -1652,34 +1565,25 @@
       <c r="N7" s="3">
         <v>900</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="8" spans="1:17" ht="39" customHeight="1">
+    <row r="8" spans="1:14" ht="39" customHeight="1">
       <c r="A8" s="3">
         <v>3015</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4">
         <v>3001</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4">
         <v>12</v>
@@ -1697,34 +1601,25 @@
       <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="9" spans="1:17" ht="39" customHeight="1">
+    <row r="9" spans="1:14" ht="39" customHeight="1">
       <c r="A9" s="3">
         <v>3016</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <v>3001</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4">
         <v>12</v>
@@ -1742,28 +1637,19 @@
       <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="10" spans="1:17" ht="39" customHeight="1">
+    <row r="10" spans="1:14" ht="39" customHeight="1">
       <c r="A10" s="3">
         <v>3021</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4">
         <v>3002</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1787,28 +1673,19 @@
       <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="11" spans="1:17" ht="39" customHeight="1">
+    <row r="11" spans="1:14" ht="39" customHeight="1">
       <c r="A11" s="6">
         <v>3022</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4">
         <v>3002</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1832,28 +1709,19 @@
       <c r="N11" s="3">
         <v>500</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="12" spans="1:17" ht="39" customHeight="1">
+    <row r="12" spans="1:14" ht="39" customHeight="1">
       <c r="A12" s="3">
         <v>3023</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4">
         <v>3002</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1877,28 +1745,19 @@
       <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="13" spans="1:17" ht="39" customHeight="1">
+    <row r="13" spans="1:14" ht="39" customHeight="1">
       <c r="A13" s="6">
         <v>3024</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4">
         <v>3002</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1922,28 +1781,19 @@
       <c r="N13" s="3">
         <v>900</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="14" spans="1:17" ht="39" customHeight="1">
+    <row r="14" spans="1:14" ht="39" customHeight="1">
       <c r="A14" s="3">
         <v>3025</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <v>3002</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1967,28 +1817,19 @@
       <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="15" spans="1:17" ht="39" customHeight="1">
+    <row r="15" spans="1:14" ht="39" customHeight="1">
       <c r="A15" s="6">
         <v>3026</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4">
         <v>3002</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -2012,28 +1853,19 @@
       <c r="N15" s="3">
         <v>1300</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="16" spans="1:17" ht="39" customHeight="1">
+    <row r="16" spans="1:14" ht="39" customHeight="1">
       <c r="A16" s="3">
         <v>3031</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4">
         <v>3003</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -2057,34 +1889,25 @@
       <c r="N16" s="3">
         <v>4000</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="17" spans="1:17" ht="39" customHeight="1">
+    <row r="17" spans="1:14" ht="39" customHeight="1">
       <c r="A17" s="3">
         <v>3041</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4">
         <v>3004</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2100,28 +1923,19 @@
       <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="18" spans="1:17" ht="39" customHeight="1">
+    <row r="18" spans="1:14" ht="39" customHeight="1">
       <c r="A18" s="3">
         <v>3051</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4">
         <v>3005</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -2130,13 +1944,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L18" s="3">
         <v>1000</v>
@@ -2147,28 +1961,19 @@
       <c r="N18" s="3">
         <v>4000</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="19" spans="1:17" ht="39" customHeight="1">
+    <row r="19" spans="1:14" ht="39" customHeight="1">
       <c r="A19" s="3">
         <v>3061</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4">
         <v>3006</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -2190,28 +1995,19 @@
       <c r="N19" s="3">
         <v>4000</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="20" spans="1:17" ht="39" customHeight="1">
+    <row r="20" spans="1:14" ht="39" customHeight="1">
       <c r="A20" s="3">
         <v>3071</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4">
         <v>3007</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -2233,37 +2029,28 @@
       <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="21" spans="1:17" ht="39" customHeight="1">
+    <row r="21" spans="1:14" ht="39" customHeight="1">
       <c r="A21" s="3">
         <v>3081</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4">
         <v>3008</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E21" s="5">
         <v>4</v>
       </c>
       <c r="F21" s="4">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
         <v>17</v>
-      </c>
-      <c r="G21" s="3">
-        <v>18</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2278,37 +2065,28 @@
       <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="22" spans="1:17" ht="39" customHeight="1">
+    <row r="22" spans="1:14" ht="39" customHeight="1">
       <c r="A22" s="6">
         <v>3082</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4">
         <v>3008</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E22" s="5">
         <v>4</v>
       </c>
       <c r="F22" s="4">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3">
         <v>17</v>
-      </c>
-      <c r="G22" s="3">
-        <v>18</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -2323,37 +2101,28 @@
       <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="23" spans="1:17" ht="39" customHeight="1">
+    <row r="23" spans="1:14" ht="39" customHeight="1">
       <c r="A23" s="3">
         <v>3083</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4">
         <v>3008</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5">
         <v>4</v>
       </c>
       <c r="F23" s="4">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3">
         <v>17</v>
-      </c>
-      <c r="G23" s="3">
-        <v>18</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -2368,37 +2137,28 @@
       <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="24" spans="1:17" ht="39" customHeight="1">
+    <row r="24" spans="1:14" ht="39" customHeight="1">
       <c r="A24" s="6">
         <v>3084</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4">
         <v>3008</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E24" s="5">
         <v>5</v>
       </c>
       <c r="F24" s="4">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3">
         <v>17</v>
-      </c>
-      <c r="G24" s="3">
-        <v>18</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -2413,37 +2173,28 @@
       <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="25" spans="1:17" ht="39" customHeight="1">
+    <row r="25" spans="1:14" ht="39" customHeight="1">
       <c r="A25" s="3">
         <v>3085</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C25" s="4">
         <v>3008</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E25" s="5">
         <v>5</v>
       </c>
       <c r="F25" s="4">
+        <v>16</v>
+      </c>
+      <c r="G25" s="3">
         <v>17</v>
-      </c>
-      <c r="G25" s="3">
-        <v>18</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -2458,37 +2209,28 @@
       <c r="N25" s="3">
         <v>4000</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="26" spans="1:17" ht="39" customHeight="1">
+    <row r="26" spans="1:14" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>3086</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4">
         <v>3008</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E26" s="5">
         <v>5</v>
       </c>
       <c r="F26" s="4">
+        <v>16</v>
+      </c>
+      <c r="G26" s="3">
         <v>17</v>
-      </c>
-      <c r="G26" s="3">
-        <v>18</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2502,15 +2244,6 @@
       </c>
       <c r="N26" s="3">
         <v>5000</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2537,26 +2270,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16384" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
